--- a/Utmaningar.xlsx
+++ b/Utmaningar.xlsx
@@ -916,6 +916,12 @@
       </c>
       <c r="B24" s="2">
         <v>15</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Disa</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Sara Culligan</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>15</v>
